--- a/tbl打包工具/excel/storyConfig5.xlsx
+++ b/tbl打包工具/excel/storyConfig5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>storyId</t>
   </si>
@@ -202,6 +202,50 @@
   </si>
   <si>
     <t>论功封赏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中平元年，黄巾起义爆发，高唐县被盗贼攻破，刘备投奔公孙瓒，被表为别部司马，后领平原国相。初平二年，黄巾余党管亥率众军攻打北海，北海相孔融派太史慈突围向刘备求救。黄巾军闻知援军至，都四散而逃，孔融逐得以解围。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴平元年（194年），曹操以为父报仇为名再度攻打徐州，陶谦退守郯县。田楷与刘备一起前往救援，陶谦表刘备为豫州刺史，叫他驻军在小沛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴平二年，陶谦死后，刘备领徐州。建安元年，曹操表刘备为镇东将军，封宜城亭侯。袁术率大军进攻徐州，刘备迎击时，吕布偷袭了下邳。刘备回军，于袁术战于广陵、海西。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建安三年，吕布派高顺和张辽进攻刘备，曹操虽派夏侯惇援救，但被击败。刘备单身逃走，后与曹操联合进攻吕布。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建安二年，刘备向吕布求和，吕布将刘备的妻子归还给他，刘备回到小沛。不久，刘备再度召募了万余人的军队，吕布于是率军进攻小沛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建安四年，刘备进军下邳，杀徐州刺史车胄，并击退曹操援兵。建安五年春，衣带诏事发。曹操亲自东征刘备，刘备战败，关羽被擒。七月，袁绍使刘备领兵与刘辟经略汝南，关羽复归刘备。曹操派遣蔡阳前来攻打。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建安六年，曹操亲自讨伐刘备，刘备往投刘表，屯于新野。建安七年，刘表命刘备带军北上，到叶县，夏侯惇、于禁、李典率军抵挡。刘备伪退，设下伏兵，李典觉得有诈乃劝之，夏侯惇不听。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建安十二年，刘备三顾茅庐得诸葛亮。建安十三年，刘琮投降曹操。9月，屯驻于樊城的刘备听说刘琮投降，便带老百姓向江陵撤退。曹操亲率五千骑兵从襄阳疾驰三百里，在当阳长坂将刘备追上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤壁之战，曹操大败，刘备顺势南收荆州四郡，又从孙权手中借江陵，占据荆州五郡。建安十四年10月，孙权表刘备为荆州牧，刘备与孙权之妹成亲。诸将封赏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建安十三年，当阳之战后，孙权使者鲁肃见刘备、诸葛亮与长坂，说服刘备与孙权结盟。10月，曹操自江陵东下，至赤壁与孙、刘联军隔江对峙。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,10 +289,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,22 +601,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="72.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -585,8 +636,11 @@
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -605,8 +659,11 @@
       <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -625,8 +682,11 @@
       <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -645,8 +705,11 @@
       <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -665,8 +728,11 @@
       <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -685,8 +751,11 @@
       <c r="F6" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -705,8 +774,11 @@
       <c r="F7" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G7" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -725,8 +797,11 @@
       <c r="F8" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G8" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -745,8 +820,11 @@
       <c r="F9" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G9" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -765,8 +843,11 @@
       <c r="F10" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G10" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -784,6 +865,9 @@
       </c>
       <c r="F11" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/storyConfig5.xlsx
+++ b/tbl打包工具/excel/storyConfig5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>storyId</t>
   </si>
@@ -32,10 +32,6 @@
     <t>reward</t>
   </si>
   <si>
-    <t>6001-50;6002-100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>talk</t>
   </si>
   <si>
@@ -54,154 +50,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>talk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetCity</t>
+  </si>
+  <si>
+    <t>targetCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标城池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战役名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北海之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9020;9046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广陵之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小沛之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9033;9034;9047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下邳之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建安三年，吕布派高顺和张辽进攻刘备，曹操虽派夏侯惇援救，但被击败。刘备单身逃走，后与曹操联合进攻吕布。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建安二年，刘备向吕布求和，吕布将刘备的妻子归还给他，刘备回到小沛。不久，刘备再度召募了万余人的军队，吕布于是率军进攻小沛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>奖励物品，以;分割。物品ID字符串和数量用-分割</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>talk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话内容，以;分割。人物ID字符串和文本用-分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetCity</t>
-  </si>
-  <si>
-    <t>targetCity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标城池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战役名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-5001;8001-5002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北海之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9020;9046</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-5003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3002;3004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-5004;8001-5005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广陵之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9014;9031;9032</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郯城之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-5006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小沛之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9033;9034;9047</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-5007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下邳之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9033;9034;9047;9048</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-5008;8001-5009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汝南之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3002;3003;3004;9049</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-5010;8001-5011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶县之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3002;3003;3004;3005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-5012;8001-5013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当阳之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3001;3003;3004;3005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-5014;8001-5015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赤壁之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3001;3002;3003;3004;3005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-5016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>论功封赏</t>
+    <t>offical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励官职Id_str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励武将Id_str, 以;分割</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -209,43 +137,100 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中平元年，黄巾起义爆发，高唐县被盗贼攻破，刘备投奔公孙瓒，被表为别部司马，后领平原国相。初平二年，黄巾余党管亥率众军攻打北海，北海相孔融派太史慈突围向刘备求救。黄巾军闻知援军至，都四散而逃，孔融逐得以解围。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴平元年（194年），曹操以为父报仇为名再度攻打徐州，陶谦退守郯县。田楷与刘备一起前往救援，陶谦表刘备为豫州刺史，叫他驻军在小沛。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴平二年，陶谦死后，刘备领徐州。建安元年，曹操表刘备为镇东将军，封宜城亭侯。袁术率大军进攻徐州，刘备迎击时，吕布偷袭了下邳。刘备回军，于袁术战于广陵、海西。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建安三年，吕布派高顺和张辽进攻刘备，曹操虽派夏侯惇援救，但被击败。刘备单身逃走，后与曹操联合进攻吕布。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建安二年，刘备向吕布求和，吕布将刘备的妻子归还给他，刘备回到小沛。不久，刘备再度召募了万余人的军队，吕布于是率军进攻小沛。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建安四年，刘备进军下邳，杀徐州刺史车胄，并击退曹操援兵。建安五年春，衣带诏事发。曹操亲自东征刘备，刘备战败，关羽被擒。七月，袁绍使刘备领兵与刘辟经略汝南，关羽复归刘备。曹操派遣蔡阳前来攻打。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建安六年，曹操亲自讨伐刘备，刘备往投刘表，屯于新野。建安七年，刘表命刘备带军北上，到叶县，夏侯惇、于禁、李典率军抵挡。刘备伪退，设下伏兵，李典觉得有诈乃劝之，夏侯惇不听。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建安十二年，刘备三顾茅庐得诸葛亮。建安十三年，刘琮投降曹操。9月，屯驻于樊城的刘备听说刘琮投降，便带老百姓向江陵撤退。曹操亲率五千骑兵从襄阳疾驰三百里，在当阳长坂将刘备追上。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赤壁之战，曹操大败，刘备顺势南收荆州四郡，又从孙权手中借江陵，占据荆州五郡。建安十四年10月，孙权表刘备为荆州牧，刘备与孙权之妹成亲。诸将封赏。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建安十三年，当阳之战后，孙权使者鲁肃见刘备、诸葛亮与长坂，说服刘备与孙权结盟。10月，曹操自江陵东下，至赤壁与孙、刘联军隔江对峙。</t>
+    <t>描述（方便参考）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄巾之乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉灵帝光和七年（184年）全国大旱，冀州巨鹿人张角高喊“苍天已死，黄天当立，岁在甲子，天下大吉”，利用奇书《太平要术》，率领三十六方渠帅掀起了大规模叛乱。2月，汉灵帝以外戚何进为大将军，统率左右羽林军屯兵洛阳，拱卫京师。命左中郎将皇甫嵩、右中郎将朱儁率步骑四万重点进攻颍川黄巾军。北中郎将卢植率北军讨伐河北黄巾军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话内容id_str，以;分割。</t>
+  </si>
+  <si>
+    <t>1001;1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨伐董卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000</t>
+  </si>
+  <si>
+    <t>汉灵帝中平六年(189年)4月,灵帝崩，皇子刘辩继位，年十七，史称少帝。8月，宦官杀大将军何进，董卓迎少帝于北邙。9月，董卓废少帝刘辩为弘农王，立九岁的陈留王刘协为帝，年九岁，是为献帝。汉灵帝中平六年(189年)12月，曹操在陈留首倡义兵号召天下英雄讨伐董卓。汉献帝初平元年(190年)1月,董卓令李儒毒死弘农王(少帝) ,各路诸侯起兵反董卓。推举袁绍为盟主，袁绍自号车骑将军，曹操被授行奋武将军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平原国相</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001;2002;2003;2004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1001</t>
+  </si>
+  <si>
+    <t>5002;5003;5004;5005;5006;5007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005;5001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉献帝初平二年(191年)2月,反董联军解散，袁术表孙坚为豫州刺史，刘备依附公孙瓒为别部司马。4月,董卓入长安。汉献帝初平三年(192年)1月，刘备于是往奔公孙瓒，被表为别部司马，后领平原国相。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1002</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1004</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1005</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1006</t>
+  </si>
+  <si>
+    <t>初平二年，黄巾余党管亥率众军攻打北海，北海相孔融派太史慈突围向刘备求救。黄巾军闻知援军至，都四散而逃，孔融逐得以解围。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴平元年（194年），曹操以为父报仇为名再度攻打徐州，陶谦退守郯县。田楷与刘备一起前往救援，陶谦表刘备为豫州刺史，叫他驻军在小沛。兴平二年，陶谦死后，刘备领徐州。建安元年，曹操表刘备为镇东将军，封宜城亭侯。袁术率大军进攻徐州，刘备迎击时，吕布偷袭了下邳。刘备回军，于袁术战于广陵、海西。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5003;5004;5005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9014;9031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9033;9034;9048</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -613,261 +598,242 @@
     <col min="2" max="3" width="12.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="72.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="72.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1004</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1101</v>
+        <v>1201</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1104</v>
+        <v>1002</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1001</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1101</v>
+        <v>1004</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5002</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>1302</v>
+        <v>1101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5006</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>601</v>
+        <v>1105</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>602</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>9019</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>606</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5007</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -879,10 +845,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -901,26 +867,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -928,15 +894,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/storyConfig5.xlsx
+++ b/tbl打包工具/excel/storyConfig5.xlsx
@@ -137,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>描述（方便参考）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>offical</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,10 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>汉灵帝光和七年（184年）全国大旱，冀州巨鹿人张角高喊“苍天已死，黄天当立，岁在甲子，天下大吉”，利用奇书《太平要术》，率领三十六方渠帅掀起了大规模叛乱。2月，汉灵帝以外戚何进为大将军，统率左右羽林军屯兵洛阳，拱卫京师。命左中郎将皇甫嵩、右中郎将朱儁率步骑四万重点进攻颍川黄巾军。北中郎将卢植率北军讨伐河北黄巾军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对话内容id_str，以;分割。</t>
   </si>
   <si>
@@ -175,10 +167,6 @@
     <t>6001-1000;6002-1000</t>
   </si>
   <si>
-    <t>汉灵帝中平六年(189年)4月,灵帝崩，皇子刘辩继位，年十七，史称少帝。8月，宦官杀大将军何进，董卓迎少帝于北邙。9月，董卓废少帝刘辩为弘农王，立九岁的陈留王刘协为帝，年九岁，是为献帝。汉灵帝中平六年(189年)12月，曹操在陈留首倡义兵号召天下英雄讨伐董卓。汉献帝初平元年(190年)1月,董卓令李儒毒死弘农王(少帝) ,各路诸侯起兵反董卓。推举袁绍为盟主，袁绍自号车骑将军，曹操被授行奋武将军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>平原国相</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,10 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兴平元年（194年），曹操以为父报仇为名再度攻打徐州，陶谦退守郯县。田楷与刘备一起前往救援，陶谦表刘备为豫州刺史，叫他驻军在小沛。兴平二年，陶谦死后，刘备领徐州。建安元年，曹操表刘备为镇东将军，封宜城亭侯。袁术率大军进攻徐州，刘备迎击时，吕布偷袭了下邳。刘备回军，于袁术战于广陵、海西。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5003;5004;5005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,6 +215,22 @@
   </si>
   <si>
     <t>9033;9034;9048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述（战斗介绍用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉灵帝光和七年（184年），冀州巨鹿人张角率领三十六方渠帅掀起了大规模叛乱。2月，汉灵帝以何进为大将军，统率左右羽林军屯兵洛阳。命左中郎将皇甫嵩、右中郎将朱儁进攻颍川黄巾军，北中郎将卢植率北军讨伐河北黄巾军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉灵帝中平六年(189年)4月,灵帝崩，皇子刘辩继位。8月，宦官杀大将军何进，董卓迎少帝于北邙。9月，董卓废少帝立刘协为帝。汉献帝初平元年(190年)1月,董卓令李儒毒死少帝 ,各路诸侯起兵反董卓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴平元年（194年），曹操以为父报仇为名再度攻打徐州。田楷与刘备一起前往救援，陶谦表刘备为豫州刺史。兴平二年，陶谦死后，刘备领徐州。建安元年，袁术率大军进攻徐州，刘备迎击时，吕布偷袭了下邳。刘备回军，于袁术战于广陵、海西。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,7 +589,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -621,10 +621,10 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
@@ -633,7 +633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -641,14 +641,14 @@
         <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
@@ -656,13 +656,13 @@
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -670,25 +670,25 @@
         <v>1201</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
@@ -699,25 +699,25 @@
         <v>1002</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1">
         <v>1001</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -734,7 +734,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -746,10 +746,10 @@
         <v>5002</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -760,10 +760,10 @@
         <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F6" s="1">
         <v>5001</v>
@@ -772,10 +772,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -792,7 +792,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -926,7 +926,7 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/storyConfig5.xlsx
+++ b/tbl打包工具/excel/storyConfig5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>storyId</t>
   </si>
@@ -231,6 +231,26 @@
   </si>
   <si>
     <t>兴平元年（194年），曹操以为父报仇为名再度攻打徐州。田楷与刘备一起前往救援，陶谦表刘备为豫州刺史。兴平二年，陶谦死后，刘备领徐州。建安元年，袁术率大军进攻徐州，刘备迎击时，吕布偷袭了下邳。刘备回军，于袁术战于广陵、海西。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huangjinjun.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线剧情动画文件，0标识无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taodonglianjun.mp4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,25 +606,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="72.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="72.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -615,25 +636,28 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -643,26 +667,29 @@
       <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -672,26 +699,29 @@
       <c r="C3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -704,23 +734,26 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>1001</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -730,26 +763,29 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
         <v>5002</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -759,26 +795,29 @@
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>5001</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -788,26 +827,29 @@
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
         <v>5006</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -817,22 +859,25 @@
       <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
         <v>5007</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -845,10 +890,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -883,49 +928,57 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>53</v>
       </c>
     </row>

--- a/tbl打包工具/excel/storyConfig5.xlsx
+++ b/tbl打包工具/excel/storyConfig5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>storyId</t>
   </si>
@@ -178,10 +178,6 @@
     <t>6001-1000;6002-1001</t>
   </si>
   <si>
-    <t>5002;5003;5004;5005;5006;5007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2005;5001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,6 +247,46 @@
   </si>
   <si>
     <t>taodonglianjun.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403-1000;404-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>404-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401-1000;402-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5002;5003;5004;5005;5006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励士兵，以;分割。物品ID字符串和数量用-分割</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -617,15 +653,16 @@
     <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="72.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="72.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -636,7 +673,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -645,19 +682,22 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -668,7 +708,7 @@
         <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -676,20 +716,23 @@
       <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
+      <c r="G2" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="1">
+        <v>5007</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="K2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -700,7 +743,7 @@
         <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -708,20 +751,23 @@
       <c r="F3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
+      <c r="G3" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="K3" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -740,20 +786,23 @@
       <c r="F4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="1">
         <v>1001</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -770,22 +819,25 @@
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
         <v>5002</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="K5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -799,25 +851,28 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="1">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="1">
         <v>5001</v>
       </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -834,22 +889,25 @@
         <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
         <v>5006</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -863,21 +921,24 @@
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
         <v>5007</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -890,10 +951,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -928,10 +989,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
         <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -952,34 +1013,42 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
-        <v>53</v>
+      <c r="B11" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/storyConfig5.xlsx
+++ b/tbl打包工具/excel/storyConfig5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>storyId</t>
   </si>
@@ -287,6 +287,18 @@
   </si>
   <si>
     <t>奖励士兵，以;分割。物品ID字符串和数量用-分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleIdStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗ID字符串，0标识无战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleIdStr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,27 +654,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="72.375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="19.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="72.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -676,28 +688,31 @@
         <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -713,26 +728,29 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
       <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
         <v>5007</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -748,26 +766,29 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -783,26 +804,29 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>1001</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -815,29 +839,32 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
         <v>5002</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -850,29 +877,32 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>5001</v>
       </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -885,29 +915,32 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
         <v>5006</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -920,25 +953,28 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
         <v>5007</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -951,10 +987,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -997,57 +1033,65 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>52</v>
       </c>
     </row>

--- a/tbl打包工具/excel/storyConfig5.xlsx
+++ b/tbl打包工具/excel/storyConfig5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="14805" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>501</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>17</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>502</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>50</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>503</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>20</v>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>504</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>51</v>

--- a/tbl打包工具/excel/storyConfig5.xlsx
+++ b/tbl打包工具/excel/storyConfig5.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710"/>
+    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="148">
   <si>
     <t>storyId</t>
   </si>
@@ -151,10 +151,6 @@
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剧情类型，1事件叙述，2武将来投，3主线任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -651,6 +647,50 @@
   </si>
   <si>
     <t>主公，割据之势已成，请主公立刻开府理事（建造1级官府），保一方太平。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频剧情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移至城池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募士兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组建部曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封官拜将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主城建设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,12 +788,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -795,7 +838,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -830,7 +873,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1041,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1133,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -1150,7 +1193,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
@@ -1171,7 +1214,7 @@
         <v>101</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1179,13 +1222,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="6">
         <v>403</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" s="6">
         <v>0</v>
@@ -1194,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="6">
         <v>0</v>
@@ -1203,13 +1246,13 @@
         <v>2003</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K4" s="6">
         <v>5001</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1223,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
@@ -1232,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H5" s="6">
         <v>0</v>
@@ -1247,7 +1290,7 @@
         <v>102</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1255,13 +1298,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
@@ -1270,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" s="6">
         <v>0</v>
@@ -1285,7 +1328,7 @@
         <v>103</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1293,13 +1336,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="5">
         <v>211</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
@@ -1308,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="6">
         <v>0</v>
@@ -1323,7 +1366,7 @@
         <v>5002</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1331,13 +1374,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
@@ -1346,7 +1389,7 @@
         <v>501</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="6">
         <v>0</v>
@@ -1361,7 +1404,7 @@
         <v>5003</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1375,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
@@ -1399,7 +1442,7 @@
         <v>104</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1407,13 +1450,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" s="5">
         <v>203</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
@@ -1422,7 +1465,7 @@
         <v>502</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H10" s="6">
         <v>0</v>
@@ -1437,7 +1480,7 @@
         <v>106</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1445,13 +1488,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="5">
         <v>300</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
@@ -1460,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
@@ -1475,7 +1518,7 @@
         <v>5004</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1489,31 +1532,31 @@
         <v>0</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="L12" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1527,7 +1570,7 @@
         <v>307</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
@@ -1536,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
@@ -1545,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K13" s="6">
         <v>5005</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1559,22 +1602,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="H14" s="5">
         <v>0</v>
@@ -1589,7 +1632,7 @@
         <v>111</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1603,31 +1646,31 @@
         <v>0</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1635,13 +1678,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="6">
         <v>9008</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
@@ -1650,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" s="6">
         <v>0</v>
@@ -1665,7 +1708,7 @@
         <v>5006</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1673,13 +1716,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17" s="6">
         <v>300</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
@@ -1688,7 +1731,7 @@
         <v>503</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H17" s="5">
         <v>0</v>
@@ -1703,7 +1746,7 @@
         <v>5007</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1711,13 +1754,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" s="5">
         <v>304</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
@@ -1726,7 +1769,7 @@
         <v>504</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H18" s="6">
         <v>0</v>
@@ -1741,7 +1784,7 @@
         <v>5008</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1749,13 +1792,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C19" s="5">
         <v>300</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
@@ -1764,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H19" s="5">
         <v>0</v>
@@ -1779,7 +1822,7 @@
         <v>5009</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1793,31 +1836,31 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5">
-        <v>0</v>
-      </c>
-      <c r="J20" s="5">
-        <v>0</v>
-      </c>
-      <c r="K20" s="6" t="s">
+      <c r="L20" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1825,22 +1868,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C21" s="5">
         <v>300</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="H21" s="5">
         <v>0</v>
@@ -1855,7 +1898,7 @@
         <v>116</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1869,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="6">
         <v>0</v>
@@ -1878,7 +1921,7 @@
         <v>103</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H22" s="6">
         <v>0</v>
@@ -1893,7 +1936,7 @@
         <v>3012</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1907,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
@@ -1916,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H23" s="5">
         <v>0</v>
@@ -1931,7 +1974,7 @@
         <v>3013</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -1945,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" s="6">
         <v>0</v>
@@ -1969,7 +2012,7 @@
         <v>113</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="7" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -1983,7 +2026,7 @@
         <v>315</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
@@ -1992,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H25" s="6">
         <v>0</v>
@@ -2001,13 +2044,13 @@
         <v>5001</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K25" s="6">
         <v>3014</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -2021,7 +2064,7 @@
         <v>314</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" s="6">
         <v>0</v>
@@ -2030,7 +2073,7 @@
         <v>104</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H26" s="6">
         <v>0</v>
@@ -2045,7 +2088,7 @@
         <v>3015</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="7" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -2059,31 +2102,31 @@
         <v>0</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-      <c r="H27" s="5">
-        <v>0</v>
-      </c>
-      <c r="I27" s="5">
-        <v>0</v>
-      </c>
-      <c r="J27" s="5">
-        <v>0</v>
-      </c>
-      <c r="K27" s="6" t="s">
+      <c r="L27" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -2097,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="E28" s="6">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="H28" s="5">
         <v>0</v>
@@ -2121,7 +2164,7 @@
         <v>3016</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -2135,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
@@ -2144,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H29" s="5">
         <v>0</v>
@@ -2159,7 +2202,7 @@
         <v>3017</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2173,19 +2216,19 @@
         <v>317</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="I30" s="5">
         <v>0</v>
@@ -2197,7 +2240,7 @@
         <v>3018</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2211,7 +2254,7 @@
         <v>9009</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -2220,10 +2263,10 @@
         <v>105</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
@@ -2235,7 +2278,7 @@
         <v>3019</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2249,7 +2292,7 @@
         <v>314</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
@@ -2258,10 +2301,10 @@
         <v>106</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
@@ -2273,7 +2316,7 @@
         <v>3020</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2287,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -2311,7 +2354,7 @@
         <v>116</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -2325,31 +2368,31 @@
         <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="L34" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2363,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -2387,7 +2430,7 @@
         <v>119</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2401,7 +2444,7 @@
         <v>317</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -2410,10 +2453,10 @@
         <v>107</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
@@ -2425,7 +2468,7 @@
         <v>3021</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2437,10 +2480,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2449,7 +2492,7 @@
     <col min="2" max="2" width="64.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2457,23 +2500,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2481,7 +2524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2489,7 +2532,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2497,7 +2540,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2505,7 +2548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2513,7 +2556,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2521,7 +2564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2529,20 +2572,92 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G22">
+        <v>6</v>
+      </c>
+      <c r="H22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
